--- a/quizzes/4. Cau hoi Chuong 4_Phap luat ve KDBH.xlsx
+++ b/quizzes/4. Cau hoi Chuong 4_Phap luat ve KDBH.xlsx
@@ -1861,7 +1861,11 @@
           <t>Doanh nghiệp bảo hiểm, doanh nghiệp tái bảo hiểm, chi nhánh nước ngoài tại Việt Nam phải trích lập quỹ dự trữ bắt buộc để bổ sung vốn chủ sở hữu và bảo đảm khả năng thanh toán.</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Quỹ dự trữ bắt buộc được trích hằng năm theo tỷ lệ 05% lợi nhuận sau thuế cho đến khi bằng mức tối đa theo quy định của Chính phủ.</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>Ngoài quỹ dự trữ bắt buộc, doanh nghiệp bảo hiểm, doanh nghiệp tái bảo hiểm, chi nhánh nước ngoài tại Việt Nam có thể lập các quỹ dự trữ khác từ lợi nhuận sau thuế của năm tài chính theo quy định tại điều lệ của doanh nghiệp bảo hiểm, doanh nghiệp tái bảo hiểm, quy chế tổ chức và hoạt động của chi nhánh nước ngoài tại Việt Nam.</t>
